--- a/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2C9941-2AAB-4F8D-84FA-161FA0DF10C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C6EFB0-BAB0-4DB9-8006-E1E96441F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8239D29A-1EFC-4677-80AC-3694E3347091}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17E534D1-403E-4D9A-A6EA-29C2CAF15E73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>8,37%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>93,01%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
     <t>6,99%</t>
   </si>
   <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>7,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,61 +197,61 @@
     <t>94,84%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>91,86%</t>
+    <t>91,91%</t>
   </si>
   <si>
     <t>93,75%</t>
@@ -260,19 +260,19 @@
     <t>94,31%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>7,12%</t>
@@ -281,25 +281,25 @@
     <t>6,25%</t>
   </si>
   <si>
-    <t>8,14%</t>
+    <t>8,09%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,163 +311,163 @@
     <t>91,51%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>8,72%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>93,77%</t>
@@ -476,73 +476,76 @@
     <t>93,14%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,85%)</t>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
+    <t>92,61%</t>
+  </si>
+  <si>
     <t>94,92%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>6,21%</t>
@@ -551,118 +554,112 @@
     <t>5,08%</t>
   </si>
   <si>
+    <t>7,39%</t>
+  </si>
+  <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>91,87%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>92,69%</t>
@@ -671,40 +668,37 @@
     <t>94,09%</t>
   </si>
   <si>
-    <t>93,25%</t>
+    <t>93,22%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
@@ -779,9 +773,6 @@
     <t>86,7%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
     <t>88,17%</t>
   </si>
   <si>
@@ -801,9 +792,6 @@
   </si>
   <si>
     <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
   </si>
   <si>
     <t>13,3%</t>
@@ -1317,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D1C013-1AE6-4571-92B5-4A41D6732FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957C74AC-A71B-4030-85CA-22264E47FD1A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2068,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB26169-2827-4416-ABB9-3AFEF4130C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F5165-D742-4D1A-9F5C-7E346C818C82}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2210,7 +2198,7 @@
         <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>93</v>
@@ -2219,7 +2207,7 @@
         <v>2015</v>
       </c>
       <c r="N4" s="7">
-        <v>2159904</v>
+        <v>2159905</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>94</v>
@@ -2264,7 +2252,7 @@
         <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -2321,7 +2309,7 @@
         <v>2153</v>
       </c>
       <c r="N6" s="7">
-        <v>2310409</v>
+        <v>2310410</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2535,7 +2523,7 @@
         <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>130</v>
@@ -2589,7 +2577,7 @@
         <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2651,7 @@
         <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>3098</v>
@@ -2684,7 +2672,7 @@
         <v>6091</v>
       </c>
       <c r="N13" s="7">
-        <v>6532804</v>
+        <v>6532803</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>143</v>
@@ -2711,7 +2699,7 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>146</v>
@@ -2786,7 +2774,7 @@
         <v>6489</v>
       </c>
       <c r="N15" s="7">
-        <v>6967175</v>
+        <v>6967174</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2819,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AD9317-D0FE-4A72-A653-AE55C6C23F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17F836F-627C-4B28-9AFF-69E73F01435A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2976,10 +2964,10 @@
         <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2982,13 @@
         <v>66467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -3009,13 +2997,13 @@
         <v>41963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -3024,13 +3012,13 @@
         <v>108430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3086,13 @@
         <v>1889508</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>1786</v>
@@ -3113,28 +3101,28 @@
         <v>1861439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>3566</v>
       </c>
       <c r="N7" s="7">
-        <v>3750945</v>
+        <v>3750946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3137,13 @@
         <v>181927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>120</v>
@@ -3164,13 +3152,13 @@
         <v>124775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>287</v>
@@ -3179,13 +3167,13 @@
         <v>306703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,7 +3215,7 @@
         <v>3853</v>
       </c>
       <c r="N9" s="7">
-        <v>4057648</v>
+        <v>4057649</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3253,13 +3241,13 @@
         <v>516953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>485</v>
@@ -3268,13 +3256,13 @@
         <v>507350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>959</v>
@@ -3283,13 +3271,13 @@
         <v>1024303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3292,13 @@
         <v>29933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3319,13 +3307,13 @@
         <v>41790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -3334,10 +3322,10 @@
         <v>71723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>205</v>
@@ -3408,28 +3396,28 @@
         <v>3092389</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>3122</v>
       </c>
       <c r="I13" s="7">
-        <v>3320604</v>
+        <v>3320605</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>6072</v>
@@ -3438,13 +3426,13 @@
         <v>6412993</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3447,13 @@
         <v>278327</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -3474,13 +3462,13 @@
         <v>208529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -3489,13 +3477,13 @@
         <v>486856</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3510,7 @@
         <v>3323</v>
       </c>
       <c r="I15" s="7">
-        <v>3529133</v>
+        <v>3529134</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3570,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8526D55-088A-4975-8949-0D4921EE3777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B1C5A-D744-4B51-9DE2-243389190CCF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3682,13 @@
         <v>456219</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>1287</v>
@@ -3709,13 +3697,13 @@
         <v>748213</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>1881</v>
@@ -3724,13 +3712,13 @@
         <v>1204431</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>85415</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>140</v>
@@ -3760,13 +3748,13 @@
         <v>87740</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>237</v>
@@ -3775,13 +3763,13 @@
         <v>173155</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3837,13 @@
         <v>1892639</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>2609</v>
@@ -3864,13 +3852,13 @@
         <v>1997211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>4372</v>
@@ -3879,13 +3867,13 @@
         <v>3889850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3888,13 @@
         <v>269383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>312</v>
@@ -3915,13 +3903,13 @@
         <v>252310</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>541</v>
@@ -3930,13 +3918,13 @@
         <v>521693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3992,13 @@
         <v>592189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>896</v>
@@ -4019,13 +4007,13 @@
         <v>640795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>1505</v>
@@ -4034,13 +4022,13 @@
         <v>1232985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4043,13 @@
         <v>80850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -4070,13 +4058,13 @@
         <v>73091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
@@ -4085,13 +4073,13 @@
         <v>153941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4147,13 @@
         <v>2941045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>4792</v>
@@ -4174,13 +4162,13 @@
         <v>3386219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>7758</v>
@@ -4189,13 +4177,13 @@
         <v>6327264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4198,13 @@
         <v>435649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -4225,13 +4213,13 @@
         <v>413141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>958</v>
@@ -4240,13 +4228,13 @@
         <v>848790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C6EFB0-BAB0-4DB9-8006-E1E96441F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0070A274-2BBF-47FA-A07C-E3BDD4FF2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17E534D1-403E-4D9A-A6EA-29C2CAF15E73}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D7DA7AF-CEA6-42CC-928E-3D07E847A251}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>8,37%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,748 +140,736 @@
     <t>93,01%</t>
   </si>
   <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
     <t>91,74%</t>
   </si>
   <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>87,54%</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>86,7%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>91,58%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>10,87%</t>
@@ -890,10 +878,10 @@
     <t>9,7%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957C74AC-A71B-4030-85CA-22264E47FD1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F268B21F-2D23-4AB3-9075-3F98F06B1408}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1927,10 +1915,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1933,13 @@
         <v>233120</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -1960,13 +1948,13 @@
         <v>192129</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -1975,13 +1963,13 @@
         <v>425249</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,7 +2025,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F5165-D742-4D1A-9F5C-7E346C818C82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195E4AED-923B-4F3F-8AAA-1919C11F0DC5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2180,13 +2168,13 @@
         <v>891903</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>1182</v>
@@ -2195,28 +2183,28 @@
         <v>1268001</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>2015</v>
       </c>
       <c r="N4" s="7">
-        <v>2159905</v>
+        <v>2159904</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2219,13 @@
         <v>82740</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -2246,13 +2234,13 @@
         <v>67765</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -2309,7 +2297,7 @@
         <v>2153</v>
       </c>
       <c r="N6" s="7">
-        <v>2310410</v>
+        <v>2310409</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2335,13 +2323,13 @@
         <v>1846843</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>1531</v>
@@ -2350,13 +2338,13 @@
         <v>1643117</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>3278</v>
@@ -2365,13 +2353,13 @@
         <v>3489960</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2374,13 @@
         <v>116201</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
@@ -2401,13 +2389,13 @@
         <v>111696</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>209</v>
@@ -2416,13 +2404,13 @@
         <v>227897</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2478,13 @@
         <v>453117</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>385</v>
@@ -2505,13 +2493,13 @@
         <v>429822</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>798</v>
@@ -2520,13 +2508,13 @@
         <v>882939</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2529,13 @@
         <v>28064</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2556,13 +2544,13 @@
         <v>27905</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -2571,13 +2559,13 @@
         <v>55969</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2639,7 @@
         <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>3098</v>
@@ -2660,7 +2648,7 @@
         <v>3340940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>141</v>
@@ -2672,7 +2660,7 @@
         <v>6091</v>
       </c>
       <c r="N13" s="7">
-        <v>6532803</v>
+        <v>6532804</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>143</v>
@@ -2699,10 +2687,10 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>190</v>
@@ -2711,7 +2699,7 @@
         <v>207366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>148</v>
@@ -2774,7 +2762,7 @@
         <v>6489</v>
       </c>
       <c r="N15" s="7">
-        <v>6967174</v>
+        <v>6967175</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2788,7 +2776,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17F836F-627C-4B28-9AFF-69E73F01435A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C0B3A3-C312-4820-A490-55CBCB59F192}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2964,10 +2952,10 @@
         <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2970,13 @@
         <v>66467</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -2997,13 +2985,13 @@
         <v>41963</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -3012,13 +3000,13 @@
         <v>108430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3074,13 @@
         <v>1889508</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>1786</v>
@@ -3101,28 +3089,28 @@
         <v>1861439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>3566</v>
       </c>
       <c r="N7" s="7">
-        <v>3750946</v>
+        <v>3750945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3125,13 @@
         <v>181927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>120</v>
@@ -3152,13 +3140,13 @@
         <v>124775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>287</v>
@@ -3167,13 +3155,13 @@
         <v>306703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,7 +3203,7 @@
         <v>3853</v>
       </c>
       <c r="N9" s="7">
-        <v>4057649</v>
+        <v>4057648</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3241,13 +3229,13 @@
         <v>516953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>485</v>
@@ -3256,13 +3244,13 @@
         <v>507350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>959</v>
@@ -3271,13 +3259,13 @@
         <v>1024303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3280,13 @@
         <v>29933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3307,13 +3295,13 @@
         <v>41790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -3322,13 +3310,13 @@
         <v>71723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,43 +3384,43 @@
         <v>3092389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>3122</v>
       </c>
       <c r="I13" s="7">
-        <v>3320605</v>
+        <v>3320604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>6072</v>
       </c>
       <c r="N13" s="7">
-        <v>6412993</v>
+        <v>6412994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3435,13 @@
         <v>278327</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -3462,13 +3450,13 @@
         <v>208529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -3477,13 +3465,13 @@
         <v>486856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3498,7 @@
         <v>3323</v>
       </c>
       <c r="I15" s="7">
-        <v>3529134</v>
+        <v>3529133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3525,7 +3513,7 @@
         <v>6531</v>
       </c>
       <c r="N15" s="7">
-        <v>6899849</v>
+        <v>6899850</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3539,7 +3527,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B1C5A-D744-4B51-9DE2-243389190CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D21BD66-A61C-40D5-858A-2662283C5E67}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3670,13 @@
         <v>456219</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>1287</v>
@@ -3697,13 +3685,13 @@
         <v>748213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>1881</v>
@@ -3712,13 +3700,13 @@
         <v>1204431</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3721,13 @@
         <v>85415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>140</v>
@@ -3748,13 +3736,13 @@
         <v>87740</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>237</v>
@@ -3763,13 +3751,13 @@
         <v>173155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,28 +3825,28 @@
         <v>1892639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>2609</v>
       </c>
       <c r="I7" s="7">
-        <v>1997211</v>
+        <v>1997210</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>4372</v>
@@ -3867,13 +3855,13 @@
         <v>3889850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3876,13 @@
         <v>269383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>312</v>
@@ -3903,13 +3891,13 @@
         <v>252310</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>541</v>
@@ -3918,13 +3906,13 @@
         <v>521693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,7 +3939,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3992,13 +3980,13 @@
         <v>592189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>896</v>
@@ -4007,13 +3995,13 @@
         <v>640795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>1505</v>
@@ -4022,13 +4010,13 @@
         <v>1232985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4031,13 @@
         <v>80850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -4058,13 +4046,13 @@
         <v>73091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
@@ -4073,13 +4061,13 @@
         <v>153941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,16 +4132,16 @@
         <v>2966</v>
       </c>
       <c r="D13" s="7">
-        <v>2941045</v>
+        <v>2941046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>4792</v>
@@ -4162,28 +4150,28 @@
         <v>3386219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>7758</v>
       </c>
       <c r="N13" s="7">
-        <v>6327264</v>
+        <v>6327265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4186,13 @@
         <v>435649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -4213,13 +4201,13 @@
         <v>413141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>958</v>
@@ -4228,13 +4216,13 @@
         <v>848790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4234,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4276,7 +4264,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4290,7 +4278,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0070A274-2BBF-47FA-A07C-E3BDD4FF2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{126AB3FD-07ED-4536-A656-6F2617FB2CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D7DA7AF-CEA6-42CC-928E-3D07E847A251}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C5930BB-E58E-487A-91C9-6891BB3AED4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -686,202 +686,214 @@
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>14,75%</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F268B21F-2D23-4AB3-9075-3F98F06B1408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A57EEA3-5BDB-438C-B0DE-19418A36ACAF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1444,7 +1456,7 @@
         <v>2164</v>
       </c>
       <c r="N4" s="7">
-        <v>2183093</v>
+        <v>2183092</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1546,7 +1558,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1879,7 +1891,7 @@
         <v>2986</v>
       </c>
       <c r="D13" s="7">
-        <v>3042542</v>
+        <v>3042541</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1981,7 +1993,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2044,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195E4AED-923B-4F3F-8AAA-1919C11F0DC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99C54E1-CCC3-426C-BF23-8F6CC6BFAA2C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2795,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C0B3A3-C312-4820-A490-55CBCB59F192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A917AC-F663-4569-B66C-25E31B741AB9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,7 +3113,7 @@
         <v>3566</v>
       </c>
       <c r="N7" s="7">
-        <v>3750945</v>
+        <v>3750946</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>173</v>
@@ -3203,7 +3215,7 @@
         <v>3853</v>
       </c>
       <c r="N9" s="7">
-        <v>4057648</v>
+        <v>4057649</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3256,7 +3268,7 @@
         <v>959</v>
       </c>
       <c r="N10" s="7">
-        <v>1024303</v>
+        <v>1024304</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>190</v>
@@ -3358,7 +3370,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3411,7 +3423,7 @@
         <v>6072</v>
       </c>
       <c r="N13" s="7">
-        <v>6412994</v>
+        <v>6412993</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>204</v>
@@ -3513,7 +3525,7 @@
         <v>6531</v>
       </c>
       <c r="N15" s="7">
-        <v>6899850</v>
+        <v>6899849</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3546,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D21BD66-A61C-40D5-858A-2662283C5E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849B97A4-E96B-41DE-95DB-BF40819CA21D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3679,7 @@
         <v>594</v>
       </c>
       <c r="D4" s="7">
-        <v>456219</v>
+        <v>436813</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>215</v>
@@ -3682,7 +3694,7 @@
         <v>1287</v>
       </c>
       <c r="I4" s="7">
-        <v>748213</v>
+        <v>677786</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>218</v>
@@ -3697,7 +3709,7 @@
         <v>1881</v>
       </c>
       <c r="N4" s="7">
-        <v>1204431</v>
+        <v>1114599</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>221</v>
@@ -3718,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="7">
-        <v>85415</v>
+        <v>78125</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>224</v>
@@ -3733,7 +3745,7 @@
         <v>140</v>
       </c>
       <c r="I5" s="7">
-        <v>87740</v>
+        <v>77722</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>227</v>
@@ -3748,7 +3760,7 @@
         <v>237</v>
       </c>
       <c r="N5" s="7">
-        <v>173155</v>
+        <v>155847</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>230</v>
@@ -3769,7 +3781,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3784,7 +3796,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3799,7 +3811,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3822,7 +3834,7 @@
         <v>1763</v>
       </c>
       <c r="D7" s="7">
-        <v>1892639</v>
+        <v>2034972</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>233</v>
@@ -3837,7 +3849,7 @@
         <v>2609</v>
       </c>
       <c r="I7" s="7">
-        <v>1997210</v>
+        <v>1951748</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>236</v>
@@ -3852,7 +3864,7 @@
         <v>4372</v>
       </c>
       <c r="N7" s="7">
-        <v>3889850</v>
+        <v>3986720</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>239</v>
@@ -3873,7 +3885,7 @@
         <v>229</v>
       </c>
       <c r="D8" s="7">
-        <v>269383</v>
+        <v>255355</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>242</v>
@@ -3888,7 +3900,7 @@
         <v>312</v>
       </c>
       <c r="I8" s="7">
-        <v>252310</v>
+        <v>286075</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>245</v>
@@ -3903,7 +3915,7 @@
         <v>541</v>
       </c>
       <c r="N8" s="7">
-        <v>521693</v>
+        <v>541430</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>248</v>
@@ -3924,7 +3936,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3939,7 +3951,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3954,7 +3966,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3977,7 +3989,7 @@
         <v>609</v>
       </c>
       <c r="D10" s="7">
-        <v>592189</v>
+        <v>569652</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>251</v>
@@ -3992,22 +4004,22 @@
         <v>896</v>
       </c>
       <c r="I10" s="7">
-        <v>640795</v>
+        <v>592655</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>1505</v>
       </c>
       <c r="N10" s="7">
-        <v>1232985</v>
+        <v>1162307</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>256</v>
@@ -4028,7 +4040,7 @@
         <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>80850</v>
+        <v>76971</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>259</v>
@@ -4043,22 +4055,22 @@
         <v>108</v>
       </c>
       <c r="I11" s="7">
-        <v>73091</v>
+        <v>67808</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
       </c>
       <c r="N11" s="7">
-        <v>153941</v>
+        <v>144779</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>264</v>
@@ -4079,7 +4091,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4094,7 +4106,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4109,7 +4121,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4132,7 +4144,7 @@
         <v>2966</v>
       </c>
       <c r="D13" s="7">
-        <v>2941046</v>
+        <v>3041438</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>267</v>
@@ -4147,7 +4159,7 @@
         <v>4792</v>
       </c>
       <c r="I13" s="7">
-        <v>3386219</v>
+        <v>3222190</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>270</v>
@@ -4162,16 +4174,16 @@
         <v>7758</v>
       </c>
       <c r="N13" s="7">
-        <v>6327265</v>
+        <v>6263628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,46 +4195,46 @@
         <v>398</v>
       </c>
       <c r="D14" s="7">
-        <v>435649</v>
+        <v>410451</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
       </c>
       <c r="I14" s="7">
-        <v>413141</v>
+        <v>431604</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>958</v>
       </c>
       <c r="N14" s="7">
-        <v>848790</v>
+        <v>842055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4246,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4249,7 +4261,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4264,7 +4276,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
